--- a/biology/Botanique/Picanier_jaune/Picanier_jaune.xlsx
+++ b/biology/Botanique/Picanier_jaune/Picanier_jaune.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F3"/>
+  <dimension ref="A1:H3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,11 +490,13 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Barleria prionitis
 Le picanier jaune (Barleria prionitis) est une plante de la famille des Acanthaceae. Il est quelquefois commercialisé sous son nom vernaculaire anglais Porcupine flower.
-Il est originaire d'Inde. Il a été introduit du Siam à l'île de France, aujourd'hui île Maurice et y a pris le nom de « Piquant tac-tac »[2].
+Il est originaire d'Inde. Il a été introduit du Siam à l'île de France, aujourd'hui île Maurice et y a pris le nom de « Piquant tac-tac ».
 C'est une plante vivace buissonnante épineuse aux grandes fleurs jaunes. Ses feuilles sont connues pour contenir de la 6-hydroxyflavone, un composé chimique qui est l'un des inhibiteurs non compétitifs du cytochrome P450
 Il a été classé parmi 28 espèces de plantes envahissantes en Australie.
 </t>
@@ -515,7 +527,9 @@
           <t>Illustrations</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">
 			Barleria prionitis à Hyderabad en Inde.
